--- a/target/classes/excelfiles/VerifyShipment.xlsx
+++ b/target/classes/excelfiles/VerifyShipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TestCases</t>
   </si>
@@ -26,12 +26,6 @@
     <t>Exicution</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Test_Scenarion</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -39,6 +33,33 @@
   </si>
   <si>
     <t>CreateShipment</t>
+  </si>
+  <si>
+    <t>Origine Port</t>
+  </si>
+  <si>
+    <t>testcaseID</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>csize</t>
+  </si>
+  <si>
+    <t>oport</t>
+  </si>
+  <si>
+    <t>dport</t>
+  </si>
+  <si>
+    <t>sdate</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Destination Port</t>
   </si>
 </sst>
 </file>
@@ -95,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -114,6 +135,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -414,10 +438,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -427,33 +451,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="32.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="32.28515625" style="1"/>
+    <col min="1" max="7" width="32.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.95" customHeight="1">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
